--- a/sbs/user_oriented_en/openai_davinci_003_gusev_7b_en_alpaca_lora.xlsx
+++ b/sbs/user_oriented_en/openai_davinci_003_gusev_7b_en_alpaca_lora.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuk/proj/rulm-sbs/sbs/user_oriented_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011CB6A7-D890-8644-B1A7-3FE8FD62AE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37D5D02-5DCE-4B48-B773-30A396660468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$152</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="602">
   <si>
     <t>id</t>
   </si>
@@ -3292,9 +3295,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Zinc is an important mineral that is essential for good health. Its role in the body is to be involved in many biological processes, and it is necessary for a healthy immune system. Too much zinc is not harmful, as it can be excreted through the urine.</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -3676,8 +3676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4652,8 +4652,8 @@
       <c r="D57" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>602</v>
+      <c r="E57" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="208">
@@ -4669,8 +4669,8 @@
       <c r="D58" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>602</v>
+      <c r="E58" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="80">
@@ -5434,6 +5434,9 @@
       <c r="D103" s="2" t="s">
         <v>405</v>
       </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="80">
       <c r="A104" s="2" t="s">
@@ -5448,6 +5451,9 @@
       <c r="D104" s="2" t="s">
         <v>409</v>
       </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="48">
       <c r="A105" s="2" t="s">
@@ -5462,6 +5468,9 @@
       <c r="D105" s="2" t="s">
         <v>413</v>
       </c>
+      <c r="E105" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="106" spans="1:5" ht="48">
       <c r="A106" s="2" t="s">
@@ -5476,6 +5485,9 @@
       <c r="D106" s="2" t="s">
         <v>417</v>
       </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:5" ht="144">
       <c r="A107" s="2" t="s">
@@ -5490,6 +5502,9 @@
       <c r="D107" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:5" ht="192">
       <c r="A108" s="2" t="s">
@@ -5504,6 +5519,9 @@
       <c r="D108" s="2" t="s">
         <v>425</v>
       </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:5" ht="80">
       <c r="A109" s="2" t="s">
@@ -5518,6 +5536,9 @@
       <c r="D109" s="2" t="s">
         <v>429</v>
       </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:5" ht="350">
       <c r="A110" s="2" t="s">
@@ -5532,6 +5553,9 @@
       <c r="D110" s="2" t="s">
         <v>433</v>
       </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:5" ht="144">
       <c r="A111" s="2" t="s">
@@ -5546,6 +5570,9 @@
       <c r="D111" s="2" t="s">
         <v>437</v>
       </c>
+      <c r="E111" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="112" spans="1:5" ht="144">
       <c r="A112" s="2" t="s">
@@ -5560,8 +5587,11 @@
       <c r="D112" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="80">
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="80">
       <c r="A113" s="2" t="s">
         <v>442</v>
       </c>
@@ -5574,8 +5604,11 @@
       <c r="D113" s="2" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="80">
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="80">
       <c r="A114" s="2" t="s">
         <v>446</v>
       </c>
@@ -5588,8 +5621,11 @@
       <c r="D114" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="96">
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="96">
       <c r="A115" s="2" t="s">
         <v>450</v>
       </c>
@@ -5602,8 +5638,11 @@
       <c r="D115" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="176">
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="176">
       <c r="A116" s="2" t="s">
         <v>454</v>
       </c>
@@ -5616,8 +5655,11 @@
       <c r="D116" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="48">
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="48">
       <c r="A117" s="2" t="s">
         <v>458</v>
       </c>
@@ -5630,8 +5672,11 @@
       <c r="D117" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="48">
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="48">
       <c r="A118" s="2" t="s">
         <v>462</v>
       </c>
@@ -5644,8 +5689,11 @@
       <c r="D118" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="64">
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="64">
       <c r="A119" s="2" t="s">
         <v>466</v>
       </c>
@@ -5658,8 +5706,11 @@
       <c r="D119" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="335">
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="335">
       <c r="A120" s="2" t="s">
         <v>470</v>
       </c>
@@ -5672,8 +5723,11 @@
       <c r="D120" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="64">
+      <c r="E120" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="64">
       <c r="A121" s="2" t="s">
         <v>474</v>
       </c>
@@ -5686,8 +5740,11 @@
       <c r="D121" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="112">
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="112">
       <c r="A122" s="2" t="s">
         <v>478</v>
       </c>
@@ -5700,8 +5757,11 @@
       <c r="D122" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="80">
+      <c r="E122" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="80">
       <c r="A123" s="2" t="s">
         <v>482</v>
       </c>
@@ -5714,8 +5774,11 @@
       <c r="D123" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="320">
+      <c r="E123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="320">
       <c r="A124" s="2" t="s">
         <v>486</v>
       </c>
@@ -5728,8 +5791,11 @@
       <c r="D124" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="112">
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="112">
       <c r="A125" s="2" t="s">
         <v>490</v>
       </c>
@@ -5742,8 +5808,11 @@
       <c r="D125" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="192">
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="192">
       <c r="A126" s="2" t="s">
         <v>494</v>
       </c>
@@ -5756,8 +5825,11 @@
       <c r="D126" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="192">
+      <c r="E126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="192">
       <c r="A127" s="2" t="s">
         <v>498</v>
       </c>
@@ -5770,8 +5842,11 @@
       <c r="D127" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="272">
+      <c r="E127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="272">
       <c r="A128" s="2" t="s">
         <v>502</v>
       </c>
@@ -5784,8 +5859,11 @@
       <c r="D128" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="64">
+      <c r="E128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="64">
       <c r="A129" s="2" t="s">
         <v>506</v>
       </c>
@@ -5798,8 +5876,11 @@
       <c r="D129" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="128">
+      <c r="E129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="128">
       <c r="A130" s="2" t="s">
         <v>510</v>
       </c>
@@ -5812,8 +5893,11 @@
       <c r="D130" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="144">
+      <c r="E130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="144">
       <c r="A131" s="2" t="s">
         <v>514</v>
       </c>
@@ -5826,8 +5910,11 @@
       <c r="D131" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="80">
+      <c r="E131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="80">
       <c r="A132" s="2" t="s">
         <v>518</v>
       </c>
@@ -5840,8 +5927,11 @@
       <c r="D132" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="192">
+      <c r="E132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="192">
       <c r="A133" s="2" t="s">
         <v>522</v>
       </c>
@@ -5854,8 +5944,11 @@
       <c r="D133" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="96">
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="96">
       <c r="A134" s="2" t="s">
         <v>526</v>
       </c>
@@ -5868,8 +5961,11 @@
       <c r="D134" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="176">
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="176">
       <c r="A135" s="2" t="s">
         <v>530</v>
       </c>
@@ -5882,8 +5978,11 @@
       <c r="D135" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="80">
+      <c r="E135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="80">
       <c r="A136" s="2" t="s">
         <v>534</v>
       </c>
@@ -5896,8 +5995,11 @@
       <c r="D136" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="208">
+      <c r="E136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="208">
       <c r="A137" s="2" t="s">
         <v>538</v>
       </c>
@@ -5910,8 +6012,11 @@
       <c r="D137" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="350">
+      <c r="E137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="350">
       <c r="A138" s="2" t="s">
         <v>542</v>
       </c>
@@ -5924,8 +6029,11 @@
       <c r="D138" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="288">
+      <c r="E138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="288">
       <c r="A139" s="2" t="s">
         <v>546</v>
       </c>
@@ -5938,8 +6046,11 @@
       <c r="D139" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="350">
+      <c r="E139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="350">
       <c r="A140" s="2" t="s">
         <v>550</v>
       </c>
@@ -5952,8 +6063,11 @@
       <c r="D140" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="80">
+      <c r="E140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="80">
       <c r="A141" s="2" t="s">
         <v>554</v>
       </c>
@@ -5966,8 +6080,11 @@
       <c r="D141" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="112">
+      <c r="E141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="112">
       <c r="A142" s="2" t="s">
         <v>558</v>
       </c>
@@ -5980,8 +6097,11 @@
       <c r="D142" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="224">
+      <c r="E142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="224">
       <c r="A143" s="2" t="s">
         <v>562</v>
       </c>
@@ -5994,8 +6114,11 @@
       <c r="D143" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="176">
+      <c r="E143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="176">
       <c r="A144" s="2" t="s">
         <v>566</v>
       </c>
@@ -6008,8 +6131,11 @@
       <c r="D144" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="409.6">
+      <c r="E144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="409.6">
       <c r="A145" s="2" t="s">
         <v>570</v>
       </c>
@@ -6022,8 +6148,11 @@
       <c r="D145" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="96">
+      <c r="E145" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="96">
       <c r="A146" s="2" t="s">
         <v>574</v>
       </c>
@@ -6036,8 +6165,11 @@
       <c r="D146" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="288">
+      <c r="E146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="288">
       <c r="A147" s="2" t="s">
         <v>578</v>
       </c>
@@ -6050,8 +6182,11 @@
       <c r="D147" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="304">
+      <c r="E147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="304">
       <c r="A148" s="2" t="s">
         <v>582</v>
       </c>
@@ -6064,8 +6199,11 @@
       <c r="D148" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="208">
+      <c r="E148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="208">
       <c r="A149" s="2" t="s">
         <v>586</v>
       </c>
@@ -6078,8 +6216,11 @@
       <c r="D149" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="365">
+      <c r="E149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="365">
       <c r="A150" s="2" t="s">
         <v>590</v>
       </c>
@@ -6092,8 +6233,11 @@
       <c r="D150" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="192">
+      <c r="E150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="192">
       <c r="A151" s="2" t="s">
         <v>594</v>
       </c>
@@ -6106,8 +6250,11 @@
       <c r="D151" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="96">
+      <c r="E151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="96">
       <c r="A152" s="2" t="s">
         <v>598</v>
       </c>
@@ -6120,8 +6267,12 @@
       <c r="D152" s="2" t="s">
         <v>601</v>
       </c>
+      <c r="E152" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E152" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
